--- a/FoundData/UnitedStatesDataInvestigatoin.xlsx
+++ b/FoundData/UnitedStatesDataInvestigatoin.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ian/Documents/GBAD/Data Quality Insights Project Folder/GBADsDataQualityInsights/FoundData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E6E1B8-75E6-5643-A9E6-3C031ABCA861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84581AC-6F45-B341-8FC3-4779DEF3CEAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17280" yWindow="760" windowWidth="17280" windowHeight="21580" xr2:uid="{7A0A9B66-C12A-3542-BD29-B385DAD04BB7}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{7A0A9B66-C12A-3542-BD29-B385DAD04BB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="94">
   <si>
     <t>Country</t>
   </si>
@@ -71,9 +71,6 @@
     <t>FAOSTAT</t>
   </si>
   <si>
-    <t>Chicken production has been increasing since the 40s are more americans consume more chicken as it’s a high quality protein. Labour and feed inputs have also been falling year over year. Between 1940 and 1970 feed per pound of meet harvested has fallen by almost half and labour input between 1935 and 1965 has fallen by 90 percent to grow and harvest the same amout of birds. Given these time frames and the efficieny improvements in growing and harvesting chicken it is not unreasonable to extrapolate the growth of chicken populations from 1940-1960 trough the later half of the 20th century.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chicken population numbers have 15x'd between 1919 and 1964. This is because consumer demand has been increasing year over year since the second world war. Since technology has improved exponentially since then and chicken yields have also gone up year over year. Its very likely growth like this continued into the late 20th centure indicating the FAOSTAT numbers recieved are more than likely to be accurate. </t>
   </si>
   <si>
@@ -171,6 +168,156 @@
   </si>
   <si>
     <t>https://ageconsearch.umn.edu/record/278862, https://www.semanticscholar.org/paper/Impacts-of-animal-science-research-on-United-States-Lupton/26c0a9d50396ac4e805681d4479cf9af44b1c53d, https://www.sciencedirect.com/science/article/pii/S0048969719346807</t>
+  </si>
+  <si>
+    <t>Chicken production has been increasing since the 40s are more Americans consume more chicken as it’s a high quality protein. Labour and feed inputs have also been falling year over year. Between 1940 and 1970 feed per pound of meet harvested has fallen by almost half and labour input between 1935 and 1965 has fallen by 90 percent to grow and harvest the same amount of birds. Given these time frames and the efficiency improvements in growing and harvesting chicken it is not unreasonable to extrapolate the growth of chicken populations from 1940-1960 trough the later half of the 20th century.</t>
+  </si>
+  <si>
+    <t>The USDA reports that the population of cattle in the USA is 103 million in 2020. This is 10 million more than what FAOSTAT reports for the same year</t>
+  </si>
+  <si>
+    <t>https://usda.library.cornell.edu/concern/publications/h702q636h?locale=en</t>
+  </si>
+  <si>
+    <t>The USDA reports that the population of cattle in the USA is 103 million in 2019. This is 8 million more than what FAOSTAT reports for the same year</t>
+  </si>
+  <si>
+    <t>The USDA reports that the population of cattle in the USA is 103 million in 2018. This is 9 million more than what FAOSTAT reports for the same year</t>
+  </si>
+  <si>
+    <t>The USDA reports that the population of cattle in the USA is 103 million in 2017. This is 9.5 million more than what FAOSTAT reports for the same year</t>
+  </si>
+  <si>
+    <t>The USDA reports that the population of cattle in the USA is 92 million in 2016. This less than 200 million cattle away from what FAOSTAT is reporting for this year.</t>
+  </si>
+  <si>
+    <t>The USDA reports that the population of cattle in the USA is 95 million in 2014. This is almost 6.5 million more cattle than what FAOSTAT is reporting for this year.</t>
+  </si>
+  <si>
+    <t>The USDA reports that the population of cattle in the USA is 98.4 million in 2015. This is almost 10 million more cattle than what FAOSTAT is reporting for this year.</t>
+  </si>
+  <si>
+    <t>The USDA reports that the population of cattle in the USA is 89.3 million in 2013. FAOSTAT reports there to be 90 million which is extremely close.</t>
+  </si>
+  <si>
+    <t>The USDA reports that the population of cattle in the USA is 97.8 million in 2012. FAOSTAT reports there to be 91 million which is somewhat close to the USDA data.</t>
+  </si>
+  <si>
+    <t>The USDA reports that the population of cattle in the USA is 100 million in 2011. FAOSTAT reports there to be 93 million which is somewhat close to the USDA data.</t>
+  </si>
+  <si>
+    <t>The USDA reports that the population of cattle in the USA is 100.8 million in 2010. FAOSTAT reports there to be 94 million which is somewhat close to the USDA data.</t>
+  </si>
+  <si>
+    <t>The USDA reports that the population of cattle in the USA is 104.3 million in 2008. FAOSTAT reports there to be 96 million which is somewhat close to the USDA data.</t>
+  </si>
+  <si>
+    <t>The USDA reports that the population of cattle in the USA is 101.8 million in 2009. FAOSTAT reports there to be 94.7 million which is somewhat close to the USDA data.</t>
+  </si>
+  <si>
+    <t>The USDA reports that the population of cattle in the USA is 104.8 million in 2007. FAOSTAT reports there to be 96.6 million which is somewhat close to the USDA data.</t>
+  </si>
+  <si>
+    <t>The USDA reports that the population of cattle in the USA is 97.1 million in 2006. FAOSTAT reports there to be 96.7 million which is extremely close to the USDA population.</t>
+  </si>
+  <si>
+    <t>The USDA reports that the population of cattle in the USA is 104.5 million in 2005. FAOSTAT reports there to be 95 million which is somewhat close to the USDA data.</t>
+  </si>
+  <si>
+    <t>The USDA reports that the population of cattle in the USA is 103.6 million in 2004. FAOSTAT reports there to be 95 million which is somewhat close to the USDA data.</t>
+  </si>
+  <si>
+    <t>The USDA reports that the population of cattle in the USA is 103.9 million in 2003. FAOSTAT reports there to be 96 million which is somewhat close to the USDA data.</t>
+  </si>
+  <si>
+    <t>The USDA reports that the population of cattle in the USA is 105.2 million in 2002. FAOSTAT reports there to be 96.7 million which is somewhat close to the USDA data.</t>
+  </si>
+  <si>
+    <t>The USDA reports that the population of cattle in the USA is 105.8 million in 2001. FAOSTAT reports there to be 97.3 million which is somewhat close to the USDA data.</t>
+  </si>
+  <si>
+    <t>The USDA reports that the population of cattle in the USA is 106.4 million in 2000. FAOSTAT reports there to be 98.2 million which is somewhat close to the USDA data.</t>
+  </si>
+  <si>
+    <t>The USDA reports that the population of cattle in the USA is 106.8 million in 1999. FAOSTAT reports there to be 99.1 million which is somewhat close to the USDA data.</t>
+  </si>
+  <si>
+    <t>The USDA reports that the population of cattle in the USA is 109 million in 1998. FAOSTAT reports there to be 99.75 million which is somewhat close to the USDA data.</t>
+  </si>
+  <si>
+    <t>The USDA reports that the population of cattle in the USA is 113 million in 1997. FAOSTAT reports there to be 101.65 million which is somewhat close to the USDA data.</t>
+  </si>
+  <si>
+    <t>The USDA reports that the population of cattle in the USA is 112 million in 1996. FAOSTAT reports there to be 103.5 million which is somewhat close to the USDA data.</t>
+  </si>
+  <si>
+    <t>The USDA reports that the population of cattle in the USA is 103.3 million in 1995. FAOSTAT reports there to be 102.7 million which is extremely close to the USDA population.</t>
+  </si>
+  <si>
+    <t>The USDA reports that the population of cattle in the USA is 112.5 million in 1994. FAOSTAT reports there to be 101 million which is somewhat close to the USDA data.</t>
+  </si>
+  <si>
+    <t>The USDA reports that the population of cattle in the USA is 110.6 million in 1993. FAOSTAT reports there to be 99.2 million which is somewhat close to the USDA data.</t>
+  </si>
+  <si>
+    <t>The USDA reports that the population of cattle in the USA is 109.2 million in 1992. FAOSTAT reports there to be 97.5 million which is somewhat close to the USDA data.</t>
+  </si>
+  <si>
+    <t>The USDA reports that the population of cattle in the USA is 110 million in 1991. FAOSTAT reports there to be 96.4 million which is somewhat close to the USDA data.</t>
+  </si>
+  <si>
+    <t>The USDA reports that the population of cattle in the USA is 108.9 million in 1990. FAOSTAT reports there to be 95.8 million which is somewhat close to the USDA data.</t>
+  </si>
+  <si>
+    <t>The USDA reports that the population of cattle in the USA is 108.6 million in 1989. FAOSTAT reports there to be 96.7 million which is somewhat close to the USDA data.</t>
+  </si>
+  <si>
+    <t>The USDA reports that the population of cattle in the USA is 108 million in 1988. FAOSTAT reports there to be 99.6 million which is somewhat close to the USDA data.</t>
+  </si>
+  <si>
+    <t>The USDA reports that the population of cattle in the USA is 112 million in 1987. FAOSTAT reports there to be 102.1 million which is somewhat close to the USDA data.</t>
+  </si>
+  <si>
+    <t>The USDA reports that the population of cattle in the USA is 112 million in 1986. FAOSTAT reports there to be 102.1 million which is somewhat close to the USDA data.</t>
+  </si>
+  <si>
+    <t>The USDA reports that the population of cattle in the USA is 116 million in 1985. FAOSTAT reports there to be 109.5 million which is somewhat close to the USDA data.</t>
+  </si>
+  <si>
+    <t>The USDA reports that the population of cattle in the USA is 122 million in 1984. FAOSTAT reports there to be 113.5 million which is somewhat close to the USDA data.</t>
+  </si>
+  <si>
+    <t>The USDA reports that the population of cattle in the USA is 124 million in 1983. FAOSTAT reports there to be 115.0 million which is somewhat close to the USDA data.</t>
+  </si>
+  <si>
+    <t>The USDA reports that the population of cattle in the USA is 124 million in 1982. FAOSTAT reports there to be 115.4 million which is somewhat close to the USDA data.</t>
+  </si>
+  <si>
+    <t>The USDA reports that the population of cattle in the USA is 125 million in 1981. FAOSTAT reports there to be 114.4 million which is somewhat close to the USDA data.</t>
+  </si>
+  <si>
+    <t>The USDA reports that the population of cattle in the USA is 123 million in 1980. FAOSTAT reports there to be 111.24 million which is somewhat close to the USDA data.</t>
+  </si>
+  <si>
+    <t>The USDA reports that the population of cattle in the USA is 118 million in 1979. FAOSTAT reports there to be 110.8 million which is somewhat close to the USDA data.</t>
+  </si>
+  <si>
+    <t>The USDA reports that the population of cattle in the USA is 122 million in 1978. FAOSTAT reports there to be 116.4 million which is somewhat close to the USDA data.</t>
+  </si>
+  <si>
+    <t>The USDA reports that the population of cattle in the USA is 130.6 million in 1977. FAOSTAT reports there to be 122.8 million which is somewhat close to the USDA data.</t>
+  </si>
+  <si>
+    <t>The USDA reports that the population of cattle in the USA is 133.5 million in 1976. FAOSTAT reports there to be 127.98 million which is somewhat close to the USDA data.</t>
+  </si>
+  <si>
+    <t>The USDA reports that the population of cattle in the USA is 140.1 million in 1975. FAOSTAT reports there to be 132 million which is somewhat close to the USDA data.</t>
+  </si>
+  <si>
+    <t>The USDA reports that the population of cattle in the USA is 138.3 million in 1974. FAOSTAT reports there to be 127.8 million which is somewhat close to the USDA data.</t>
+  </si>
+  <si>
+    <t>The USDA reports that the population of cattle in the USA is 122 million in 1973. FAOSTAT reports there to be 121.54 million which is somewhat close to the USDA data.</t>
   </si>
 </sst>
 </file>
@@ -533,15 +680,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{371ED20B-CC50-7741-A754-E60E605E4F2D}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -564,7 +711,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -581,13 +728,13 @@
         <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -604,13 +751,13 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -618,7 +765,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -627,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -641,7 +788,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -650,21 +797,21 @@
         <v>5</v>
       </c>
       <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
         <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -673,67 +820,67 @@
         <v>4.5</v>
       </c>
       <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
         <v>22</v>
       </c>
-      <c r="G6" t="s">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
       </c>
       <c r="E7">
         <v>5</v>
       </c>
       <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
         <v>25</v>
       </c>
-      <c r="G7" t="s">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
       </c>
       <c r="C8">
         <v>2013</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>29</v>
       </c>
-      <c r="G8" t="s">
+      <c r="B9" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>32</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -742,44 +889,44 @@
         <v>5</v>
       </c>
       <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" t="s">
         <v>34</v>
       </c>
-      <c r="G9" t="s">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>36</v>
       </c>
-      <c r="C10" t="s">
-        <v>37</v>
-      </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>4.5</v>
       </c>
       <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
         <v>38</v>
-      </c>
-      <c r="G10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" t="s">
-        <v>39</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -788,38 +935,1144 @@
         <v>4.5</v>
       </c>
       <c r="F11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="1" t="s">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" t="s">
-        <v>42</v>
-      </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>5</v>
       </c>
       <c r="F12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" t="s">
         <v>43</v>
       </c>
-      <c r="G12" t="s">
-        <v>44</v>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>2020</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>3.5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>2019</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>2018</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>3.5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>2017</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>3.5</v>
+      </c>
+      <c r="F16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17">
+        <v>2016</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18">
+        <v>2015</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>2014</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>3.5</v>
+      </c>
+      <c r="F19" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>2013</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>2012</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22">
+        <v>2011</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23">
+        <v>2010</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24">
+        <v>2009</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25">
+        <v>2008</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26">
+        <v>2007</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27">
+        <v>2006</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="F27" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28">
+        <v>2005</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29">
+        <v>2004</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30">
+        <v>2003</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="F30" t="s">
+        <v>63</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31">
+        <v>2002</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="F31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32">
+        <v>2001</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32">
+        <v>4</v>
+      </c>
+      <c r="F32" t="s">
+        <v>65</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33">
+        <v>2000</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33">
+        <v>4</v>
+      </c>
+      <c r="F33" t="s">
+        <v>66</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34">
+        <v>1999</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34">
+        <v>4</v>
+      </c>
+      <c r="F34" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35">
+        <v>1998</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35">
+        <v>4</v>
+      </c>
+      <c r="F35" t="s">
+        <v>68</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36">
+        <v>1997</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36">
+        <v>3.5</v>
+      </c>
+      <c r="F36" t="s">
+        <v>69</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37">
+        <v>1996</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37">
+        <v>3.5</v>
+      </c>
+      <c r="F37" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38">
+        <v>1995</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38">
+        <v>5</v>
+      </c>
+      <c r="F38" t="s">
+        <v>71</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39">
+        <v>1994</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39">
+        <v>3.5</v>
+      </c>
+      <c r="F39" t="s">
+        <v>72</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40">
+        <v>1993</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40">
+        <v>3.5</v>
+      </c>
+      <c r="F40" t="s">
+        <v>73</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41">
+        <v>1992</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41">
+        <v>3.5</v>
+      </c>
+      <c r="F41" t="s">
+        <v>74</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42">
+        <v>1991</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42">
+        <v>3.5</v>
+      </c>
+      <c r="F42" t="s">
+        <v>75</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43">
+        <v>1990</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43">
+        <v>3.5</v>
+      </c>
+      <c r="F43" t="s">
+        <v>76</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44">
+        <v>1989</v>
+      </c>
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44">
+        <v>3.5</v>
+      </c>
+      <c r="F44" t="s">
+        <v>77</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45">
+        <v>1988</v>
+      </c>
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
+      <c r="F45" t="s">
+        <v>78</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46">
+        <v>1987</v>
+      </c>
+      <c r="D46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46">
+        <v>4</v>
+      </c>
+      <c r="F46" t="s">
+        <v>79</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47">
+        <v>1986</v>
+      </c>
+      <c r="D47" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47">
+        <v>4</v>
+      </c>
+      <c r="F47" t="s">
+        <v>80</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48">
+        <v>1985</v>
+      </c>
+      <c r="D48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
+      </c>
+      <c r="F48" t="s">
+        <v>81</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49">
+        <v>1984</v>
+      </c>
+      <c r="D49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49">
+        <v>4</v>
+      </c>
+      <c r="F49" t="s">
+        <v>82</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50">
+        <v>1983</v>
+      </c>
+      <c r="D50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50">
+        <v>4</v>
+      </c>
+      <c r="F50" t="s">
+        <v>83</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51">
+        <v>1982</v>
+      </c>
+      <c r="D51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51">
+        <v>4</v>
+      </c>
+      <c r="F51" t="s">
+        <v>84</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52">
+        <v>1981</v>
+      </c>
+      <c r="D52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52">
+        <v>4</v>
+      </c>
+      <c r="F52" t="s">
+        <v>85</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53">
+        <v>1980</v>
+      </c>
+      <c r="D53" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53">
+        <v>3.5</v>
+      </c>
+      <c r="F53" t="s">
+        <v>86</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54">
+        <v>1979</v>
+      </c>
+      <c r="D54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54">
+        <v>4</v>
+      </c>
+      <c r="F54" t="s">
+        <v>87</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55">
+        <v>1978</v>
+      </c>
+      <c r="D55" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55">
+        <v>4</v>
+      </c>
+      <c r="F55" t="s">
+        <v>88</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56">
+        <v>1977</v>
+      </c>
+      <c r="D56" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56">
+        <v>4</v>
+      </c>
+      <c r="F56" t="s">
+        <v>89</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57">
+        <v>1976</v>
+      </c>
+      <c r="D57" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57">
+        <v>5</v>
+      </c>
+      <c r="F57" t="s">
+        <v>90</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58">
+        <v>1975</v>
+      </c>
+      <c r="D58" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58">
+        <v>4</v>
+      </c>
+      <c r="F58" t="s">
+        <v>91</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59">
+        <v>1974</v>
+      </c>
+      <c r="D59" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59">
+        <v>4</v>
+      </c>
+      <c r="F59" t="s">
+        <v>92</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60">
+        <v>1973</v>
+      </c>
+      <c r="D60" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60">
+        <v>5</v>
+      </c>
+      <c r="F60" t="s">
+        <v>93</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H11" r:id="rId1" display="https://www.fao.org/3/cc6208en/cc6208en.pdf" xr:uid="{AF0D0344-16DD-C544-8D7C-08F0449B69B3}"/>
+    <hyperlink ref="G11" r:id="rId1" display="https://www.fao.org/3/cc6208en/cc6208en.pdf" xr:uid="{AF0D0344-16DD-C544-8D7C-08F0449B69B3}"/>
+    <hyperlink ref="G14" r:id="rId2" xr:uid="{000FEF80-6A59-A243-B700-936E7CC01E78}"/>
+    <hyperlink ref="G15" r:id="rId3" xr:uid="{F6F9D70E-E80F-A44A-9F76-54DF4BD6ED12}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
